--- a/Requisitos/Levantamento Requisitos.xlsx
+++ b/Requisitos/Levantamento Requisitos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IPCA\2o Ano\Computacao Distribuida\Projeto_Final\Crypto-Challenge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IPCA\2o Ano\Projeto final\Crypto-Challenge---Documentacao\Requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9932CE7-8B7B-4809-A76F-83A548CA884A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2955B52F-444E-41DD-A50A-AA286A7F40B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{A2C320C8-F907-4008-89FE-95236A5C8DBA}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{A2C320C8-F907-4008-89FE-95236A5C8DBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Substantivos" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="78">
   <si>
     <t>Utilizador</t>
   </si>
@@ -503,15 +503,6 @@
     <t>/Users</t>
   </si>
   <si>
-    <t>/Users/{id}</t>
-  </si>
-  <si>
-    <t>/Users/{id}/&lt;buyCoins&gt;</t>
-  </si>
-  <si>
-    <t>/Users/{id}/&lt;sellCoins&gt;</t>
-  </si>
-  <si>
     <t>/CrypoCoin/{id}&lt;showCoinHistory&gt;</t>
   </si>
   <si>
@@ -533,10 +524,130 @@
     <t>USERS</t>
   </si>
   <si>
-    <t>Get Account Summary</t>
-  </si>
-  <si>
     <t>POST</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>Update user information</t>
+  </si>
+  <si>
+    <t>Get all users</t>
+  </si>
+  <si>
+    <t>Create user account</t>
+  </si>
+  <si>
+    <t>/Cryptos</t>
+  </si>
+  <si>
+    <t>Get all cryptos</t>
+  </si>
+  <si>
+    <t>Create new Crypto</t>
+  </si>
+  <si>
+    <t>/Cryptos/;&lt;cryptoData&gt;</t>
+  </si>
+  <si>
+    <t>/Cryptos/:id/</t>
+  </si>
+  <si>
+    <t>UpdateCryptoData</t>
+  </si>
+  <si>
+    <t>RemoveCrypto</t>
+  </si>
+  <si>
+    <t>/Users/:id</t>
+  </si>
+  <si>
+    <t>GetSpecificUser</t>
+  </si>
+  <si>
+    <t>PATCH?</t>
+  </si>
+  <si>
+    <t>Updata specific field</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>/auth/signin</t>
+  </si>
+  <si>
+    <t>/auth/signup</t>
+  </si>
+  <si>
+    <t>Timer</t>
+  </si>
+  <si>
+    <t>create timer</t>
+  </si>
+  <si>
+    <t>timer/:id/start</t>
+  </si>
+  <si>
+    <t>start timer</t>
+  </si>
+  <si>
+    <t>pause timer</t>
+  </si>
+  <si>
+    <t>timer/:id/pause</t>
+  </si>
+  <si>
+    <t>AddNewGameTransaction</t>
+  </si>
+  <si>
+    <t>DeleteAccount</t>
+  </si>
+  <si>
+    <t>addtransactionHistory</t>
+  </si>
+  <si>
+    <t>update user balance</t>
+  </si>
+  <si>
+    <t>update gameuser crypto amount</t>
+  </si>
+  <si>
+    <t>GetSpecificCoinValueHistoric</t>
+  </si>
+  <si>
+    <t>GetUserTransactionHistory</t>
+  </si>
+  <si>
+    <t>GetuserSpecificGameWallet</t>
+  </si>
+  <si>
+    <t>GetAllUsersWallet</t>
+  </si>
+  <si>
+    <t>CreateNewGame</t>
+  </si>
+  <si>
+    <t>/GAME</t>
+  </si>
+  <si>
+    <t>/GameWallet/:gameiD/:userId</t>
+  </si>
+  <si>
+    <t>/GameWallet/:gameID</t>
+  </si>
+  <si>
+    <t>/gameTransaction/:gameId/:userId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/gameTransaction/:userId </t>
+  </si>
+  <si>
+    <t>creates new game in db and creates db set for it</t>
   </si>
 </sst>
 </file>
@@ -580,12 +691,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -601,7 +718,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -610,6 +727,8 @@
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -973,7 +1092,7 @@
   <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A2" sqref="A2:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1097,92 +1216,374 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76FBDC7D-2FAC-4B57-9AB8-B3EA674FEE5E}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
       <c r="J3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" t="s">
+        <v>77</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O16" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="O19" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O20" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G23" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G24" s="5"/>
+      <c r="O24" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G25" s="5"/>
+      <c r="O25" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" s="5"/>
+      <c r="O26" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G27" s="5"/>
+      <c r="O27" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="O28" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" t="s">
         <v>38</v>
       </c>
-      <c r="D4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" t="s">
-        <v>5</v>
+      <c r="D32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1190,5 +1591,6 @@
     <hyperlink ref="A1" r:id="rId1" xr:uid="{3C08D489-1958-466E-85BF-218AF3652A88}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Requisitos/Levantamento Requisitos.xlsx
+++ b/Requisitos/Levantamento Requisitos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IPCA\2o Ano\Projeto final\Crypto-Challenge---Documentacao\Requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2955B52F-444E-41DD-A50A-AA286A7F40B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF2F5EF-45EB-4313-9144-BFB9FD4F70F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{A2C320C8-F907-4008-89FE-95236A5C8DBA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A2C320C8-F907-4008-89FE-95236A5C8DBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Substantivos" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="81">
   <si>
     <t>Utilizador</t>
   </si>
@@ -539,9 +539,6 @@
     <t>Get all users</t>
   </si>
   <si>
-    <t>Create user account</t>
-  </si>
-  <si>
     <t>/Cryptos</t>
   </si>
   <si>
@@ -575,9 +572,6 @@
     <t>Updata specific field</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>/auth/signin</t>
   </si>
   <si>
@@ -641,13 +635,28 @@
     <t>/GameWallet/:gameID</t>
   </si>
   <si>
-    <t>/gameTransaction/:gameId/:userId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/gameTransaction/:userId </t>
-  </si>
-  <si>
     <t>creates new game in db and creates db set for it</t>
+  </si>
+  <si>
+    <t>CreateuserAccount</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>GetSepcificCrypto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/gameTransaction/:gameId/:userId </t>
+  </si>
+  <si>
+    <t>/gameTransaction/&lt;gameId,userId&gt;</t>
+  </si>
+  <si>
+    <t>/GAME/:id</t>
+  </si>
+  <si>
+    <t>GetSpecificGame</t>
   </si>
 </sst>
 </file>
@@ -1216,10 +1225,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76FBDC7D-2FAC-4B57-9AB8-B3EA674FEE5E}">
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1229,12 +1238,12 @@
     <col min="4" max="4" width="20.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -1248,7 +1257,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1262,199 +1271,197 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="R4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
-      </c>
-      <c r="O5" s="2"/>
-    </row>
-    <row r="6" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
         <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
-      </c>
-      <c r="J6" t="s">
-        <v>1</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" t="s">
-        <v>52</v>
-      </c>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="O9" s="1" t="s">
+    <row r="8" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
         <v>43</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
         <v>47</v>
       </c>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
         <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
-      </c>
-      <c r="G15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
+        <v>74</v>
+      </c>
       <c r="O16" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="O17" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4" t="s">
+      <c r="A18" t="s">
         <v>70</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" t="s">
+        <v>73</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="A19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
+        <v>80</v>
+      </c>
       <c r="O19" s="2" t="s">
         <v>17</v>
       </c>
@@ -1466,16 +1473,14 @@
     </row>
     <row r="21" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>36</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O21" s="1" t="s">
         <v>19</v>
@@ -1483,52 +1488,66 @@
     </row>
     <row r="22" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="O22" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G23" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
       <c r="O23" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G24" s="5"/>
+      <c r="G24" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="O24" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G25" s="5"/>
+      <c r="A25" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="O25" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="A26" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D26" t="s">
-        <v>67</v>
-      </c>
-      <c r="G26" s="5"/>
+      <c r="D26" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="O26" s="2" t="s">
         <v>24</v>
       </c>
@@ -1540,50 +1559,60 @@
       </c>
     </row>
     <row r="28" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>54</v>
-      </c>
       <c r="G28" s="5"/>
       <c r="O28" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G31" s="5"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>56</v>
       </c>
-      <c r="B31" t="s">
-        <v>36</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" t="s">
         <v>58</v>
-      </c>
-      <c r="B32" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Requisitos/Levantamento Requisitos.xlsx
+++ b/Requisitos/Levantamento Requisitos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IPCA\2o Ano\Projeto final\Crypto-Challenge---Documentacao\Requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF2F5EF-45EB-4313-9144-BFB9FD4F70F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E67B1E5-34E1-4107-BCD7-512C3F687DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A2C320C8-F907-4008-89FE-95236A5C8DBA}"/>
   </bookViews>
@@ -17,6 +17,9 @@
     <sheet name="Logica de negócio" sheetId="2" r:id="rId2"/>
     <sheet name="EndPoints" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">EndPoints!$A$2:$O$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="90">
   <si>
     <t>Utilizador</t>
   </si>
@@ -503,9 +506,6 @@
     <t>/Users</t>
   </si>
   <si>
-    <t>/CrypoCoin/{id}&lt;showCoinHistory&gt;</t>
-  </si>
-  <si>
     <t>RESTFull URL</t>
   </si>
   <si>
@@ -590,12 +590,6 @@
     <t>start timer</t>
   </si>
   <si>
-    <t>pause timer</t>
-  </si>
-  <si>
-    <t>timer/:id/pause</t>
-  </si>
-  <si>
     <t>AddNewGameTransaction</t>
   </si>
   <si>
@@ -611,9 +605,6 @@
     <t>update gameuser crypto amount</t>
   </si>
   <si>
-    <t>GetSpecificCoinValueHistoric</t>
-  </si>
-  <si>
     <t>GetUserTransactionHistory</t>
   </si>
   <si>
@@ -647,16 +638,55 @@
     <t>GetSepcificCrypto</t>
   </si>
   <si>
-    <t xml:space="preserve">/gameTransaction/:gameId/:userId </t>
-  </si>
-  <si>
-    <t>/gameTransaction/&lt;gameId,userId&gt;</t>
-  </si>
-  <si>
     <t>/GAME/:id</t>
   </si>
   <si>
     <t>GetSpecificGame</t>
+  </si>
+  <si>
+    <t>/Cryptos/:id/currentValue</t>
+  </si>
+  <si>
+    <t>Get</t>
+  </si>
+  <si>
+    <t>GetSepcificCryptoValue</t>
+  </si>
+  <si>
+    <t>/Cryptos/:id/historicValue</t>
+  </si>
+  <si>
+    <t>GetSepcificCryptoHistoricValue</t>
+  </si>
+  <si>
+    <t>CalculateLeaderBoardForSpecificGame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Transactions/:game/:userId </t>
+  </si>
+  <si>
+    <t>/Transactions/&lt;gameid, userId&gt;</t>
+  </si>
+  <si>
+    <t>GAME</t>
+  </si>
+  <si>
+    <t>TIMER</t>
+  </si>
+  <si>
+    <t>CRYPTO</t>
+  </si>
+  <si>
+    <t>USER</t>
+  </si>
+  <si>
+    <t>WALLET</t>
+  </si>
+  <si>
+    <t>TRANSACTION</t>
+  </si>
+  <si>
+    <t>/LeaderBoard/:gameId</t>
   </si>
 </sst>
 </file>
@@ -700,18 +730,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -727,7 +751,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -736,7 +760,6 @@
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1056,7 +1079,7 @@
   <dimension ref="B2:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1101,7 +1124,7 @@
   <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A22"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1225,10 +1248,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76FBDC7D-2FAC-4B57-9AB8-B3EA674FEE5E}">
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1245,16 +1268,16 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>32</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -1262,10 +1285,13 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J3" t="s">
         <v>0</v>
@@ -1273,102 +1299,121 @@
     </row>
     <row r="4" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
         <v>48</v>
       </c>
-      <c r="B4" t="s">
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
         <v>34</v>
       </c>
-      <c r="D4" t="s">
-        <v>49</v>
-      </c>
-      <c r="O4" s="2"/>
-    </row>
-    <row r="5" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J5" t="s">
         <v>1</v>
       </c>
-      <c r="O5" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
         <v>38</v>
-      </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s">
-        <v>39</v>
       </c>
       <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
         <v>50</v>
       </c>
-      <c r="D7" t="s">
-        <v>51</v>
-      </c>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="O8" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>85</v>
       </c>
       <c r="D9" t="s">
         <v>42</v>
       </c>
-      <c r="O9" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>85</v>
       </c>
       <c r="D11" t="s">
         <v>46</v>
@@ -1377,245 +1422,232 @@
     </row>
     <row r="12" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>85</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="O12" s="2"/>
     </row>
     <row r="13" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>76</v>
+      </c>
+      <c r="C13" t="s">
+        <v>85</v>
       </c>
       <c r="D13" t="s">
+        <v>77</v>
+      </c>
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" t="s">
         <v>76</v>
       </c>
-      <c r="O13" s="2"/>
-    </row>
-    <row r="14" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" t="s">
+        <v>79</v>
+      </c>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" t="s">
+        <v>71</v>
+      </c>
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>52</v>
       </c>
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" t="s">
-        <v>75</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>53</v>
-      </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>86</v>
       </c>
       <c r="D16" t="s">
+        <v>70</v>
+      </c>
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" t="s">
+        <v>69</v>
+      </c>
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" t="s">
         <v>74</v>
       </c>
-      <c r="O16" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="O17" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" t="s">
-        <v>69</v>
-      </c>
-      <c r="G18" t="s">
-        <v>73</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
       </c>
       <c r="D19" t="s">
         <v>80</v>
       </c>
-      <c r="O19" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="O20" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="D21" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="D22" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="O23" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" t="s">
+        <v>54</v>
+      </c>
       <c r="G24" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G27" s="5"/>
-      <c r="O27" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G28" s="5"/>
-      <c r="O28" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="G29" s="5"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G30" s="5"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="G31" s="5"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" t="s">
         <v>56</v>
       </c>
-      <c r="B36" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>59</v>
-      </c>
-      <c r="B37" t="s">
-        <v>38</v>
-      </c>
-      <c r="D37" t="s">
-        <v>58</v>
-      </c>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G27" s="4"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:O2" xr:uid="{76FBDC7D-2FAC-4B57-9AB8-B3EA674FEE5E}"/>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{3C08D489-1958-466E-85BF-218AF3652A88}"/>
   </hyperlinks>

--- a/Requisitos/Levantamento Requisitos.xlsx
+++ b/Requisitos/Levantamento Requisitos.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IPCA\2o Ano\Projeto final\Crypto-Challenge---Documentacao\Requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E67B1E5-34E1-4107-BCD7-512C3F687DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340C08C6-82E1-484D-98B2-A52E077E7410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A2C320C8-F907-4008-89FE-95236A5C8DBA}"/>
+    <workbookView xWindow="33360" yWindow="2055" windowWidth="21600" windowHeight="11235" activeTab="3" xr2:uid="{A2C320C8-F907-4008-89FE-95236A5C8DBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Substantivos" sheetId="1" r:id="rId1"/>
     <sheet name="Logica de negócio" sheetId="2" r:id="rId2"/>
     <sheet name="EndPoints" sheetId="3" r:id="rId3"/>
+    <sheet name="Testes" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">EndPoints!$A$2:$O$2</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="128">
   <si>
     <t>Utilizador</t>
   </si>
@@ -578,18 +579,6 @@
     <t>/auth/signup</t>
   </si>
   <si>
-    <t>Timer</t>
-  </si>
-  <si>
-    <t>create timer</t>
-  </si>
-  <si>
-    <t>timer/:id/start</t>
-  </si>
-  <si>
-    <t>start timer</t>
-  </si>
-  <si>
     <t>AddNewGameTransaction</t>
   </si>
   <si>
@@ -617,9 +606,6 @@
     <t>CreateNewGame</t>
   </si>
   <si>
-    <t>/GAME</t>
-  </si>
-  <si>
     <t>/GameWallet/:gameiD/:userId</t>
   </si>
   <si>
@@ -638,9 +624,6 @@
     <t>GetSepcificCrypto</t>
   </si>
   <si>
-    <t>/GAME/:id</t>
-  </si>
-  <si>
     <t>GetSpecificGame</t>
   </si>
   <si>
@@ -668,12 +651,6 @@
     <t>/Transactions/&lt;gameid, userId&gt;</t>
   </si>
   <si>
-    <t>GAME</t>
-  </si>
-  <si>
-    <t>TIMER</t>
-  </si>
-  <si>
     <t>CRYPTO</t>
   </si>
   <si>
@@ -686,14 +663,152 @@
     <t>TRANSACTION</t>
   </si>
   <si>
-    <t>/LeaderBoard/:gameId</t>
+    <t>/games</t>
+  </si>
+  <si>
+    <t>/games/:id</t>
+  </si>
+  <si>
+    <t>GAMES</t>
+  </si>
+  <si>
+    <t>/LeaderBoards/:gameId</t>
+  </si>
+  <si>
+    <t>/games/:id/timer</t>
+  </si>
+  <si>
+    <t>Start timer</t>
+  </si>
+  <si>
+    <t>Testes:</t>
+  </si>
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>Inserir utilizador</t>
+  </si>
+  <si>
+    <t>Alterar info utilizador (restrito ao proprio)</t>
+  </si>
+  <si>
+    <t>Listar utilizadores</t>
+  </si>
+  <si>
+    <t>Auth</t>
+  </si>
+  <si>
+    <t>guardar pass encriptada</t>
+  </si>
+  <si>
+    <t>Cryptos</t>
+  </si>
+  <si>
+    <t>Inserir Crypto</t>
+  </si>
+  <si>
+    <t>Listar Cryptos</t>
+  </si>
+  <si>
+    <t>Remover crypto</t>
+  </si>
+  <si>
+    <t>alterar cryptos</t>
+  </si>
+  <si>
+    <t>Games</t>
+  </si>
+  <si>
+    <t>Transactions</t>
+  </si>
+  <si>
+    <t>inserir transaçoes utilizador</t>
+  </si>
+  <si>
+    <t>listar por id</t>
+  </si>
+  <si>
+    <t>GameWallet</t>
+  </si>
+  <si>
+    <t>receber token ao autenticar</t>
+  </si>
+  <si>
+    <t>Criar novo jogo</t>
+  </si>
+  <si>
+    <t>listar jogo especifico</t>
+  </si>
+  <si>
+    <t>tentar autenticar com pass errada</t>
+  </si>
+  <si>
+    <t>tentar autenticar com pass utilizador errado</t>
+  </si>
+  <si>
+    <t>Criar utilizador</t>
+  </si>
+  <si>
+    <t>rotas protegidas</t>
+  </si>
+  <si>
+    <t>definir o inicio-fim do jogo</t>
+  </si>
+  <si>
+    <t>ObtergameWalletdeutilizador especificos</t>
+  </si>
+  <si>
+    <t>obter leaderboard para um jogo</t>
+  </si>
+  <si>
+    <t>Get all wallets</t>
+  </si>
+  <si>
+    <t>aceder transaçoes de outro utilizador</t>
+  </si>
+  <si>
+    <t>Transaçoes de compra devem ser positivas</t>
+  </si>
+  <si>
+    <t>Transaçoes de venda devem ser positivas</t>
+  </si>
+  <si>
+    <t>Validar se todos os campos estão preenchidos</t>
+  </si>
+  <si>
+    <t>Comprar crypto sem saldo suficiente</t>
+  </si>
+  <si>
+    <t>vender crypto que nao possui em carteira</t>
+  </si>
+  <si>
+    <t>obter crytpo que nao existe na bd</t>
+  </si>
+  <si>
+    <t>inserir crypto duplicada</t>
+  </si>
+  <si>
+    <t>Listar transaçoes todos utilizadores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inserir utilizadores com info em falta </t>
+  </si>
+  <si>
+    <t>inserir utilizador com username/email duplicado</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -729,13 +844,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -751,7 +885,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -761,6 +895,8 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1248,17 +1384,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76FBDC7D-2FAC-4B57-9AB8-B3EA674FEE5E}">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -1297,7 +1435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -1323,7 +1461,7 @@
         <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J5" t="s">
         <v>1</v>
@@ -1368,7 +1506,7 @@
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
         <v>41</v>
@@ -1383,14 +1521,14 @@
         <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
         <v>42</v>
       </c>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -1398,14 +1536,14 @@
         <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
         <v>45</v>
       </c>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -1413,14 +1551,14 @@
         <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D11" t="s">
         <v>46</v>
       </c>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -1428,40 +1566,40 @@
         <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="O13" s="2"/>
     </row>
     <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D14" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="O14" s="2"/>
     </row>
@@ -1473,10 +1611,10 @@
         <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="O15" s="2"/>
     </row>
@@ -1488,16 +1626,16 @@
         <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="O16" s="2"/>
     </row>
     <row r="17" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="B17" t="s">
         <v>35</v>
@@ -1506,16 +1644,16 @@
         <v>83</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G17" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="O17" s="2"/>
     </row>
     <row r="18" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
@@ -1524,127 +1662,118 @@
         <v>83</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" t="s">
+        <v>86</v>
+      </c>
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" t="s">
         <v>33</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>3</v>
       </c>
-      <c r="D19" t="s">
-        <v>80</v>
-      </c>
-      <c r="O19" s="2"/>
-    </row>
-    <row r="20" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>63</v>
+      <c r="D20" t="s">
+        <v>74</v>
       </c>
       <c r="O20" s="2"/>
     </row>
     <row r="21" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G21" s="4"/>
+        <v>59</v>
+      </c>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>59</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="O22" s="2"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" t="s">
-        <v>54</v>
+      <c r="C24" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D25" t="s">
-        <v>56</v>
-      </c>
-      <c r="G25" s="4"/>
+      <c r="G25" s="4" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G28" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:O2" xr:uid="{76FBDC7D-2FAC-4B57-9AB8-B3EA674FEE5E}"/>
@@ -1654,4 +1783,237 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{491B59F2-DA43-43F3-B995-F11B00911130}">
+  <dimension ref="A1:E40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Requisitos/Levantamento Requisitos.xlsx
+++ b/Requisitos/Levantamento Requisitos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IPCA\2o Ano\Projeto final\Crypto-Challenge---Documentacao\Requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340C08C6-82E1-484D-98B2-A52E077E7410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735F3666-0082-4297-A7BB-55F1C923C33D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33360" yWindow="2055" windowWidth="21600" windowHeight="11235" activeTab="3" xr2:uid="{A2C320C8-F907-4008-89FE-95236A5C8DBA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A2C320C8-F907-4008-89FE-95236A5C8DBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Substantivos" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="127">
   <si>
     <t>Utilizador</t>
   </si>
@@ -781,9 +781,6 @@
   </si>
   <si>
     <t>vender crypto que nao possui em carteira</t>
-  </si>
-  <si>
-    <t>obter crytpo que nao existe na bd</t>
   </si>
   <si>
     <t>inserir crypto duplicada</t>
@@ -1386,8 +1383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76FBDC7D-2FAC-4B57-9AB8-B3EA674FEE5E}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1787,10 +1784,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{491B59F2-DA43-43F3-B995-F11B00911130}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1810,7 +1807,7 @@
         <v>89</v>
       </c>
       <c r="E3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1818,7 +1815,7 @@
         <v>90</v>
       </c>
       <c r="E4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1826,7 +1823,7 @@
         <v>91</v>
       </c>
       <c r="E5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1834,26 +1831,29 @@
         <v>93</v>
       </c>
       <c r="E6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>94</v>
       </c>
+      <c r="E9" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1867,10 +1867,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1884,132 +1884,133 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>121</v>
+      <c r="A15" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>118</v>
+      <c r="A38" s="6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="A39" t="s">
         <v>113</v>
       </c>
     </row>

--- a/Requisitos/Levantamento Requisitos.xlsx
+++ b/Requisitos/Levantamento Requisitos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IPCA\2o Ano\Projeto final\Crypto-Challenge---Documentacao\Requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735F3666-0082-4297-A7BB-55F1C923C33D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D15EFF-44C4-435D-AE5D-28087E19398D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A2C320C8-F907-4008-89FE-95236A5C8DBA}"/>
   </bookViews>
@@ -540,9 +540,6 @@
     <t>Get all users</t>
   </si>
   <si>
-    <t>/Cryptos</t>
-  </si>
-  <si>
     <t>Get all cryptos</t>
   </si>
   <si>
@@ -799,6 +796,9 @@
   </si>
   <si>
     <t xml:space="preserve">git </t>
+  </si>
+  <si>
+    <t>/Assets</t>
   </si>
 </sst>
 </file>
@@ -1383,8 +1383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76FBDC7D-2FAC-4B57-9AB8-B3EA674FEE5E}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1434,7 +1434,7 @@
     </row>
     <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
         <v>33</v>
@@ -1443,13 +1443,13 @@
         <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
         <v>36</v>
@@ -1458,7 +1458,7 @@
         <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J5" t="s">
         <v>1</v>
@@ -1467,7 +1467,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
         <v>37</v>
@@ -1482,205 +1482,205 @@
     </row>
     <row r="7" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
         <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O7" s="1"/>
     </row>
     <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O8" s="2"/>
     </row>
     <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
         <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O11" s="2"/>
     </row>
     <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
         <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O12" s="2"/>
     </row>
     <row r="13" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" t="s">
         <v>69</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" t="s">
         <v>70</v>
-      </c>
-      <c r="C13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" t="s">
-        <v>71</v>
       </c>
       <c r="O13" s="2"/>
     </row>
     <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" t="s">
         <v>72</v>
-      </c>
-      <c r="B14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" t="s">
-        <v>73</v>
       </c>
       <c r="O14" s="2"/>
     </row>
     <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
         <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O15" s="2"/>
     </row>
     <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
         <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O16" s="2"/>
     </row>
     <row r="17" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B17" t="s">
         <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O17" s="2"/>
     </row>
     <row r="18" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O19" s="2"/>
     </row>
     <row r="20" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B20" t="s">
         <v>33</v>
@@ -1689,78 +1689,78 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O20" s="2"/>
     </row>
     <row r="21" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G22" s="4"/>
       <c r="O22" s="2"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G25" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -1794,214 +1794,214 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
@@ -2011,7 +2011,7 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
